--- a/TEMOA_Europe_Results/1_Results_bau/_3_Electricity.xlsx
+++ b/TEMOA_Europe_Results/1_Results_bau/_3_Electricity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
   <si>
     <t>tech</t>
   </si>
@@ -68,9 +68,6 @@
     <t>ELC_CHP_NGA_EXS</t>
   </si>
   <si>
-    <t>ELC_CHP_NGA_NEW</t>
-  </si>
-  <si>
     <t>ELC_NGA_CCY_ADV_NEW</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>ELC_WIN_OFF_NEW</t>
   </si>
   <si>
-    <t>ELC_SOL_PV_EXS</t>
-  </si>
-  <si>
     <t>ELC_SOL_PV_CEN_NEW</t>
   </si>
   <si>
@@ -152,22 +146,13 @@
     <t>ELC_SOL_CSP_3_NEW</t>
   </si>
   <si>
-    <t>ELC_MAR_EXS</t>
-  </si>
-  <si>
     <t>ELC_MAR_TDL_NEW</t>
   </si>
   <si>
-    <t>ELC_NGA_SOFC_CCS_NEW</t>
-  </si>
-  <si>
     <t>ELC_BIO_CRP_GSF_CCS_NEW</t>
   </si>
   <si>
     <t>ELC_BIO_CRP_COM_CCS_NEW</t>
-  </si>
-  <si>
-    <t>ELC_BIO_GSF_CCS_NEW</t>
   </si>
   <si>
     <t>IMP_ELC_AFR</t>
@@ -603,7 +588,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -652,13 +637,13 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D2">
-        <v>2113.316643155001</v>
+        <v>1967.146866973664</v>
       </c>
       <c r="E2">
-        <v>2113.316643155001</v>
+        <v>1967.146866973664</v>
       </c>
       <c r="F2">
         <v>874.1022335999999</v>
@@ -667,7 +652,7 @@
         <v>582.7348224</v>
       </c>
       <c r="H2">
-        <v>291.3674111999999</v>
+        <v>291.3674111999998</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -690,13 +675,13 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D3">
-        <v>246.1613077958008</v>
+        <v>275.2998214967081</v>
       </c>
       <c r="E3">
-        <v>173.88602784</v>
+        <v>182.9623126553018</v>
       </c>
       <c r="F3">
         <v>130.41452088</v>
@@ -705,7 +690,7 @@
         <v>86.94301392000001</v>
       </c>
       <c r="H3">
-        <v>43.47150696000001</v>
+        <v>43.47150696</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -728,19 +713,19 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D4">
-        <v>783.4720490491995</v>
+        <v>900.5033115296278</v>
       </c>
       <c r="E4">
-        <v>813.2573290050002</v>
+        <v>950.3508203710339</v>
       </c>
       <c r="F4">
-        <v>691.55324552</v>
+        <v>691.5532455199997</v>
       </c>
       <c r="G4">
-        <v>32.05059905877666</v>
+        <v>43.04401349012711</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -766,13 +751,13 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D5">
         <v>1941.31571508</v>
       </c>
       <c r="E5">
-        <v>817.3960905600001</v>
+        <v>817.3960905599999</v>
       </c>
       <c r="F5">
         <v>613.04706792</v>
@@ -781,7 +766,7 @@
         <v>408.69804528</v>
       </c>
       <c r="H5">
-        <v>204.34902264</v>
+        <v>204.3490226399999</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -804,16 +789,16 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D6">
         <v>597.2161249999996</v>
       </c>
       <c r="E6">
-        <v>307.630284</v>
+        <v>307.6302839999999</v>
       </c>
       <c r="F6">
-        <v>319.1705271992329</v>
+        <v>314.4153892427436</v>
       </c>
       <c r="G6">
         <v>153.815142</v>
@@ -842,19 +827,19 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>545.3581599199998</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>984.0236254400003</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1691.907542837256</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>42.19251515797556</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -863,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>3.25976638531103E-07</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -880,28 +865,28 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D8">
-        <v>545.3581599199999</v>
+        <v>237.2427148750001</v>
       </c>
       <c r="E8">
-        <v>984.0236254400004</v>
+        <v>173.6369646</v>
       </c>
       <c r="F8">
-        <v>1687.152404880767</v>
+        <v>121.7100384</v>
       </c>
       <c r="G8">
-        <v>49.60672410239422</v>
+        <v>91.28252880000001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>60.8550192</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>30.4275096</v>
       </c>
       <c r="J8">
-        <v>-1.706485314545518E-06</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -918,25 +903,25 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D9">
-        <v>237.2427148750001</v>
+        <v>53.99728512499998</v>
       </c>
       <c r="E9">
-        <v>173.6369646</v>
+        <v>41.4922952</v>
       </c>
       <c r="F9">
-        <v>121.7100384</v>
+        <v>31.1192214</v>
       </c>
       <c r="G9">
-        <v>91.28252879999999</v>
+        <v>20.7461476</v>
       </c>
       <c r="H9">
-        <v>60.8550192</v>
+        <v>10.3730738</v>
       </c>
       <c r="I9">
-        <v>30.42750960000001</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -956,22 +941,22 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>53.99728512499998</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>41.49229519999999</v>
+        <v>7.710740200000039</v>
       </c>
       <c r="F10">
-        <v>31.1192214</v>
+        <v>7.710740200000037</v>
       </c>
       <c r="G10">
-        <v>20.7461476</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>10.3730738</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -994,19 +979,19 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1158.308338742487</v>
       </c>
       <c r="E11">
-        <v>7.710740199999995</v>
+        <v>822.6661650107463</v>
       </c>
       <c r="F11">
-        <v>7.710740199999995</v>
+        <v>735.3406832533715</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>36.28783860630476</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1029,31 +1014,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>696.4095484746834</v>
+        <v>740.3023322348735</v>
       </c>
       <c r="E12">
-        <v>803.5990583550148</v>
+        <v>784.4765618997259</v>
       </c>
       <c r="F12">
-        <v>757.3841895733715</v>
+        <v>652.7495852161717</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1074.18437616933</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>827.9350859157257</v>
       </c>
       <c r="I12">
-        <v>0.1939769706857177</v>
+        <v>552.9536666594172</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>277.6180536939086</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1070,34 +1055,34 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D13">
-        <v>1202.201122502677</v>
+        <v>26.7602001758</v>
       </c>
       <c r="E13">
-        <v>783.1065785810425</v>
+        <v>43.2</v>
       </c>
       <c r="F13">
-        <v>630.7060788961716</v>
+        <v>43.2</v>
       </c>
       <c r="G13">
-        <v>1105.493450192414</v>
+        <v>26.7602001758</v>
       </c>
       <c r="H13">
-        <v>832.8541610817258</v>
+        <v>37.19564503199999</v>
       </c>
       <c r="I13">
-        <v>555.0421304171315</v>
+        <v>29.7565160256</v>
       </c>
       <c r="J13">
-        <v>277.6180536939086</v>
+        <v>29.55958777638667</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>29.55958777638667</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>15.81709246429832</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1108,34 +1093,34 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D14">
-        <v>26.7602001758</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>26.7602001758</v>
+        <v>145.2474100369932</v>
       </c>
       <c r="F14">
-        <v>43.2</v>
+        <v>267.2807457180355</v>
       </c>
       <c r="G14">
-        <v>26.7602001758</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>37.25924804281826</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>29.7565160256</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>29.55958777638667</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>29.55958777638667</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>15.74049115543521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1143,37 +1128,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>168.5435981152114</v>
+        <v>196.4679812348914</v>
       </c>
       <c r="F15">
-        <v>267.2807457180356</v>
+        <v>363.4261504697829</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1002.06027243617</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1274.439299205445</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1356.580172725594</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1219.731675374266</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1139.923862679161</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1187.213645060565</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1184,34 +1169,34 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>97.5645589723199</v>
       </c>
       <c r="E16">
-        <v>196.4679812348915</v>
+        <v>81.90711176732351</v>
       </c>
       <c r="F16">
-        <v>363.4261504697829</v>
+        <v>109.0271822587199</v>
       </c>
       <c r="G16">
-        <v>1013.042360372565</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1334.835587763615</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1359.846667794987</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1196.580940010209</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1135.84349864025</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1142.96719703506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1219,37 +1204,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D17">
-        <v>65.02834364399993</v>
+        <v>92.60477005031991</v>
       </c>
       <c r="E17">
-        <v>79.04801366351992</v>
+        <v>92.60477005031991</v>
       </c>
       <c r="F17">
-        <v>86.98367593871993</v>
+        <v>103.1856530839199</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>193.6962900338398</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>193.6962900338398</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>193.6962900338398</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>165.417245578562</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>207.6156218176054</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>131.9126272289517</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1260,34 +1245,34 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D18">
-        <v>125.1409853786399</v>
+        <v>16.4397998242</v>
       </c>
       <c r="E18">
-        <v>92.60477005031991</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>125.2291594039199</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>193.6962900338398</v>
+        <v>16.4397998242</v>
       </c>
       <c r="H18">
-        <v>193.6962900338398</v>
+        <v>6.004354968000008</v>
       </c>
       <c r="I18">
-        <v>193.6962900338398</v>
+        <v>13.4434839744</v>
       </c>
       <c r="J18">
-        <v>161.7135060264304</v>
+        <v>13.64041222361334</v>
       </c>
       <c r="K18">
-        <v>207.6156218176054</v>
+        <v>13.64041222361334</v>
       </c>
       <c r="L18">
-        <v>126.9963552261177</v>
+        <v>27.38290753570169</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1298,34 +1283,34 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D19">
-        <v>16.4397998242</v>
+        <v>3212.26157332</v>
       </c>
       <c r="E19">
-        <v>16.4397998242</v>
+        <v>2509.125632000001</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>2101.599200000001</v>
       </c>
       <c r="G19">
-        <v>16.4397998242</v>
+        <v>2149.08925824</v>
       </c>
       <c r="H19">
-        <v>5.940751957181739</v>
+        <v>1790.9077152</v>
       </c>
       <c r="I19">
-        <v>13.4434839744</v>
+        <v>1432.72617216</v>
       </c>
       <c r="J19">
-        <v>13.64041222361334</v>
+        <v>1074.54462912</v>
       </c>
       <c r="K19">
-        <v>13.64041222361334</v>
+        <v>716.3630860800001</v>
       </c>
       <c r="L19">
-        <v>27.45950884456479</v>
+        <v>358.1815430400003</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1336,34 +1321,34 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D20">
-        <v>3212.26157332</v>
+        <v>85.61842668000011</v>
       </c>
       <c r="E20">
-        <v>2509.125632000006</v>
+        <v>561.9843679999993</v>
       </c>
       <c r="F20">
-        <v>2101.599200000001</v>
+        <v>525.3907999999999</v>
       </c>
       <c r="G20">
-        <v>2149.089258240001</v>
+        <v>691.7462071199997</v>
       </c>
       <c r="H20">
-        <v>1790.9077152</v>
+        <v>691.74620712</v>
       </c>
       <c r="I20">
-        <v>1432.72617216</v>
+        <v>691.7462071199998</v>
       </c>
       <c r="J20">
-        <v>1074.54462912</v>
+        <v>691.7462071200005</v>
       </c>
       <c r="K20">
-        <v>716.36308608</v>
+        <v>691.74620712</v>
       </c>
       <c r="L20">
-        <v>358.1815430400003</v>
+        <v>691.7462071199998</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1374,34 +1359,34 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D21">
-        <v>85.61842668000011</v>
+        <v>53.30694833543522</v>
       </c>
       <c r="E21">
-        <v>561.9843679999943</v>
+        <v>31.39792649599996</v>
       </c>
       <c r="F21">
-        <v>525.3907999999998</v>
+        <v>41.65391482901499</v>
       </c>
       <c r="G21">
-        <v>691.746207119998</v>
+        <v>15.698963248</v>
       </c>
       <c r="H21">
-        <v>691.7462071199992</v>
+        <v>7.849481623999997</v>
       </c>
       <c r="I21">
-        <v>691.7462071199996</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>691.74620712</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>691.7462071199998</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>691.7462071200006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1412,22 +1397,22 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D22">
-        <v>63.06687006150604</v>
+        <v>109.90296</v>
       </c>
       <c r="E22">
-        <v>31.39792649599999</v>
+        <v>87.92236800000002</v>
       </c>
       <c r="F22">
-        <v>36.95684108774721</v>
+        <v>65.941776</v>
       </c>
       <c r="G22">
-        <v>15.698963248</v>
+        <v>43.961184</v>
       </c>
       <c r="H22">
-        <v>7.849481623999999</v>
+        <v>21.980592</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1450,22 +1435,22 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D23">
-        <v>109.90296</v>
+        <v>42.19509166456488</v>
       </c>
       <c r="E23">
-        <v>87.92236800000001</v>
+        <v>16.20145401039719</v>
       </c>
       <c r="F23">
-        <v>65.94177600000002</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>43.961184</v>
+        <v>12.77908490412536</v>
       </c>
       <c r="H23">
-        <v>21.980592</v>
+        <v>15.19023299924336</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1488,25 +1473,25 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D24">
-        <v>32.43516993849402</v>
+        <v>181.755</v>
       </c>
       <c r="E24">
-        <v>16.17899953325496</v>
+        <v>435.8682514936025</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>460.6700564933916</v>
       </c>
       <c r="G24">
-        <v>9.823222895658191</v>
+        <v>383.7381570589953</v>
       </c>
       <c r="H24">
-        <v>11.67666117785785</v>
+        <v>219.5191493865527</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>140.134331297339</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1526,31 +1511,31 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D25">
-        <v>181.755</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>435.8907059707431</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>467.4754282308407</v>
+        <v>82.44425267759375</v>
       </c>
       <c r="G25">
-        <v>405.8342910949521</v>
+        <v>146.1132101520001</v>
       </c>
       <c r="H25">
-        <v>231.9714704104334</v>
+        <v>55.25289459529415</v>
       </c>
       <c r="I25">
-        <v>149.6477351754529</v>
+        <v>77.17864641882358</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>68.32779737335758</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>47.87535418370608</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1564,31 +1549,31 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>137.54</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>163.92</v>
       </c>
       <c r="F26">
-        <v>80.33595468141172</v>
+        <v>186.24</v>
       </c>
       <c r="G26">
-        <v>146.1132101519999</v>
+        <v>57.34072840962946</v>
       </c>
       <c r="H26">
-        <v>55.25289459529408</v>
+        <v>63.05079743648919</v>
       </c>
       <c r="I26">
-        <v>77.17864641882348</v>
+        <v>41.65634662615428</v>
       </c>
       <c r="J26">
-        <v>55.25289459529408</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>75.24918025835349</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -1602,34 +1587,34 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D27">
-        <v>137.54</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>163.92</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>186.24</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>54.61565962826742</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>64.92050106756317</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>43.73545481921266</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>7.994791013908801</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>60.91217105652487</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>91.21774808466709</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1640,34 +1625,34 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>3.197683</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>2.5581464</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1.918609799999999</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1.2790732</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>0.6395365999999998</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>6.647216063204309</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>58.78378634328317</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>92.1502232200631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1678,28 +1663,28 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D29">
-        <v>3.197683</v>
+        <v>21.712536</v>
       </c>
       <c r="E29">
-        <v>2.558146399999999</v>
+        <v>18.61074514285714</v>
       </c>
       <c r="F29">
-        <v>1.918609799999999</v>
+        <v>15.50895428571429</v>
       </c>
       <c r="G29">
-        <v>1.2790732</v>
+        <v>12.40716342857143</v>
       </c>
       <c r="H29">
-        <v>0.6395365999999999</v>
+        <v>9.305372571428572</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>6.203581714285715</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>3.101790857142856</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1716,34 +1701,34 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D30">
-        <v>21.712536</v>
+        <v>13.739781</v>
       </c>
       <c r="E30">
-        <v>18.61074514285714</v>
+        <v>32.98110845714285</v>
       </c>
       <c r="F30">
-        <v>15.50895428571429</v>
+        <v>63.9724359142857</v>
       </c>
       <c r="G30">
-        <v>12.40716342857143</v>
+        <v>65.82134881884792</v>
       </c>
       <c r="H30">
-        <v>9.30537257142857</v>
+        <v>32.3559898507748</v>
       </c>
       <c r="I30">
-        <v>6.203581714285715</v>
+        <v>56.90545516612457</v>
       </c>
       <c r="J30">
-        <v>3.101790857142856</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>11.31245436203077</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1754,34 +1739,34 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D31">
-        <v>13.739781</v>
+        <v>550.0799999999999</v>
       </c>
       <c r="E31">
-        <v>32.98110845714285</v>
+        <v>983.02</v>
       </c>
       <c r="F31">
-        <v>63.9724359142857</v>
+        <v>1530.69</v>
       </c>
       <c r="G31">
-        <v>65.23077140267497</v>
+        <v>2446.836039369971</v>
       </c>
       <c r="H31">
-        <v>44.07486838129038</v>
+        <v>2865.714328965617</v>
       </c>
       <c r="I31">
-        <v>56.91719599821649</v>
+        <v>2771.751048144276</v>
       </c>
       <c r="J31">
-        <v>15.51353176124685</v>
+        <v>2678.885347686585</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>2493.053497749698</v>
       </c>
       <c r="L31">
-        <v>11.315654480525</v>
+        <v>3283.3389786444</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1789,37 +1774,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D32">
-        <v>550.0799999999999</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>983.02</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1530.69</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>2453.523701493424</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>2967.626459145144</v>
+        <v>179.2099849972774</v>
       </c>
       <c r="I32">
-        <v>2770.055892445896</v>
+        <v>345.1522387781142</v>
       </c>
       <c r="J32">
-        <v>2448.7717678443</v>
+        <v>612.2359940886416</v>
       </c>
       <c r="K32">
-        <v>2459.178887580626</v>
+        <v>713.5310403027819</v>
       </c>
       <c r="L32">
-        <v>2516.662824719715</v>
+        <v>194.6680069446405</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1830,34 +1815,34 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>126.62</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>259.57</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>971.9331803103523</v>
       </c>
       <c r="H33">
-        <v>86.06024513803138</v>
+        <v>1910.981286434087</v>
       </c>
       <c r="I33">
-        <v>333.5092926649833</v>
+        <v>1924.536869557668</v>
       </c>
       <c r="J33">
-        <v>734.6557945731669</v>
+        <v>3084.442277852659</v>
       </c>
       <c r="K33">
-        <v>863.5363798819817</v>
+        <v>3967.065582148221</v>
       </c>
       <c r="L33">
-        <v>811.0522358918014</v>
+        <v>3454.923513409323</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1865,37 +1850,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>126.62</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>259.57</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>958.1046611896799</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>1975.423666264135</v>
+        <v>152.2258281066603</v>
       </c>
       <c r="I34">
-        <v>1666.950990988767</v>
+        <v>336.5780651934584</v>
       </c>
       <c r="J34">
-        <v>3018.808420628104</v>
+        <v>689.1951322011108</v>
       </c>
       <c r="K34">
-        <v>3753.018175132161</v>
+        <v>635.9081001301072</v>
       </c>
       <c r="L34">
-        <v>3960.628761107041</v>
+        <v>1923.577646979351</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1906,34 +1891,34 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>164.23</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>361.68</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>583.6799999999998</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1406.094709572</v>
       </c>
       <c r="H35">
-        <v>91.43901045915834</v>
+        <v>2121.634368602233</v>
       </c>
       <c r="I35">
-        <v>589.2559737675884</v>
+        <v>2466.482093067884</v>
       </c>
       <c r="J35">
-        <v>909.0951024724337</v>
+        <v>2331.913512061592</v>
       </c>
       <c r="K35">
-        <v>810.5614576826652</v>
+        <v>1847.211367261171</v>
       </c>
       <c r="L35">
-        <v>1597.868254619334</v>
+        <v>1534.266369291002</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1941,16 +1926,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D36">
-        <v>4.830263455478399</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>2.4820497353088</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1959,19 +1944,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2.528575816973618</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>321.9498224836747</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>324.6050998286438</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>956.8073050316997</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1154.432014976138</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1979,37 +1964,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D37">
-        <v>159.3997365445216</v>
+        <v>1.053824976402668</v>
       </c>
       <c r="E37">
-        <v>359.1979502646912</v>
+        <v>12.42806438973553</v>
       </c>
       <c r="F37">
-        <v>583.6800000000001</v>
+        <v>12.44306259140809</v>
       </c>
       <c r="G37">
-        <v>1414.418209275783</v>
+        <v>10.05868158566332</v>
       </c>
       <c r="H37">
-        <v>1921.550203890851</v>
+        <v>10.05868158566332</v>
       </c>
       <c r="I37">
-        <v>2482.73419012964</v>
+        <v>7.246775308153572</v>
       </c>
       <c r="J37">
-        <v>2451.433192420788</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>1896.729929580244</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>2018.399444758955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2020,34 +2005,34 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1.686175023597332</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>7.701935610264472</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>8.016937408591909</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>7.328450574336686</v>
       </c>
       <c r="H38">
-        <v>75.04658281381903</v>
+        <v>7.327119755136686</v>
       </c>
       <c r="I38">
-        <v>319.9041753641893</v>
+        <v>7.295375617536686</v>
       </c>
       <c r="J38">
-        <v>244.4932781932938</v>
+        <v>7.294044798336685</v>
       </c>
       <c r="K38">
-        <v>847.9431081547293</v>
+        <v>4.1233900998972</v>
       </c>
       <c r="L38">
-        <v>803.2418632923417</v>
+        <v>0.09393943680000219</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2055,37 +2040,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>8.165391908303427</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>8.49539190830343</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>8.866461470969144</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>8.224420993103426</v>
+        <v>0.001330819200000031</v>
       </c>
       <c r="I39">
-        <v>8.830586117369144</v>
+        <v>0.03307495680000077</v>
       </c>
       <c r="J39">
-        <v>0.0376161407999992</v>
+        <v>0.0344057760000008</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>0.1154091456000027</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>0.04704540480000109</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2096,28 +2081,28 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>7.794563904000001</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>0.7881477120000008</v>
       </c>
       <c r="I40">
-        <v>0.04029039359999915</v>
+        <v>0.6042297600000006</v>
       </c>
       <c r="J40">
-        <v>0.01825934399999961</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2134,34 +2119,34 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D41">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>11.96460809169657</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>11.96460809169657</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>11.96460809169657</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>11.97098582546471</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>11.97353691897197</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>11.96460809169657</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>11.96460809169657</v>
+        <v>1.398457640469259E-07</v>
       </c>
       <c r="L41">
-        <v>0.1514903101946201</v>
+        <v>1.398457632915136E-07</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2172,16 +2157,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D42">
-        <v>0.07294442666666676</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>0.06280218666666673</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.08450543013836495</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2193,13 +2178,13 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1.457837858247201E-07</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>5.131589383301133E-07</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1.457837857851045E-07</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2210,34 +2195,34 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43">
-        <v>1.647055573333333</v>
+        <v>25.08</v>
       </c>
       <c r="E43">
-        <v>1.697197813333333</v>
+        <v>27.17</v>
       </c>
       <c r="F43">
-        <v>1.765494569861635</v>
+        <v>29.26000000000001</v>
       </c>
       <c r="G43">
-        <v>6.739759968201258</v>
+        <v>14.20176456</v>
       </c>
       <c r="H43">
-        <v>0.7918058880000005</v>
+        <v>24.42731256</v>
       </c>
       <c r="I43">
-        <v>0.6042297600000006</v>
+        <v>16.947730224</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>7.857194400000001</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>12.26266039830474</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>54.365209992</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2248,34 +2233,34 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>175.75</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>190.475</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>205.2</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>53.56108929600001</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>69.856749648</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>48.1212680544</v>
       </c>
       <c r="J44">
-        <v>8.701297309091234E-07</v>
+        <v>14.6343817152</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>100.5499364296468</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2286,16 +2271,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>116.85</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>126.825</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>136.8</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2307,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>1.398457633289542E-07</v>
+        <v>0</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -2324,34 +2309,34 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>37.525</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>46.8825</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>56.23999999999999</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>57.5877756119007</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>45.5466564</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>22.78586376</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>3.291467826375548</v>
       </c>
       <c r="K46">
-        <v>1.761068132762847E-07</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>1.329548126724042E-07</v>
+        <v>45.18296748</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2362,7 +2347,7 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2383,202 +2368,12 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>2.33359672664877E-07</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48">
-        <v>25.08</v>
-      </c>
-      <c r="E48">
-        <v>27.17</v>
-      </c>
-      <c r="F48">
-        <v>29.26000000000001</v>
-      </c>
-      <c r="G48">
-        <v>18.385834896</v>
-      </c>
-      <c r="H48">
-        <v>24.42731256</v>
-      </c>
-      <c r="I48">
-        <v>16.947730224</v>
-      </c>
-      <c r="J48">
-        <v>7.857194400000001</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>24.06409668000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49">
-        <v>185</v>
-      </c>
-      <c r="E49">
-        <v>190.475</v>
-      </c>
-      <c r="F49">
-        <v>205.2</v>
-      </c>
-      <c r="G49">
-        <v>53.56108929600001</v>
-      </c>
-      <c r="H49">
-        <v>69.856749648</v>
-      </c>
-      <c r="I49">
-        <v>48.1212680544</v>
-      </c>
-      <c r="J49">
-        <v>14.6343817152</v>
-      </c>
-      <c r="K49">
-        <v>43.37192231184185</v>
-      </c>
-      <c r="L49">
-        <v>137.6766252245558</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50">
-        <v>116.85</v>
-      </c>
-      <c r="E50">
-        <v>126.825</v>
-      </c>
-      <c r="F50">
-        <v>136.8</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51">
-        <v>37.525</v>
-      </c>
-      <c r="E51">
-        <v>46.8825</v>
-      </c>
-      <c r="F51">
-        <v>56.23999999999999</v>
-      </c>
-      <c r="G51">
-        <v>59.32441944</v>
-      </c>
-      <c r="H51">
-        <v>45.5466564</v>
-      </c>
-      <c r="I51">
-        <v>22.78586376</v>
-      </c>
-      <c r="J51">
-        <v>7.615523465501429</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>17.87133896699219</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
         <v>4.761936</v>
       </c>
     </row>
